--- a/资料库/装备库.xlsx
+++ b/资料库/装备库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="19935" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="装备V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
   <si>
     <t>情报层级</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>特性5</t>
+  </si>
+  <si>
+    <t>刀鞘（小）</t>
+  </si>
+  <si>
+    <t>刀鞘（中）</t>
+  </si>
+  <si>
+    <t>（刀鞘（大）</t>
+  </si>
+  <si>
+    <t>快速栏</t>
   </si>
   <si>
     <t>属性需求</t>
@@ -385,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -400,7 +412,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,29 +471,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,24 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,8 +501,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,44 +539,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -549,6 +561,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -558,7 +606,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,133 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,31 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +755,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -776,55 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,153 +831,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1338,15 +1350,18 @@
     <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
     <col min="4" max="6" width="7.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,13 +1410,21 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -1414,45 +1437,57 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1">
         <v>8</v>
       </c>
-      <c r="P2" s="1">
+      <c r="T2" s="1">
         <v>650</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1465,45 +1500,57 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="S3" s="1">
         <v>8</v>
       </c>
-      <c r="P3" s="1">
+      <c r="T3" s="1">
         <v>1000</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1516,45 +1563,57 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1">
         <v>15</v>
       </c>
-      <c r="P4" s="1">
+      <c r="T4" s="1">
         <v>2100</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -1567,45 +1626,57 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="1">
         <v>3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="T5" s="1">
         <v>600</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="U5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1618,45 +1689,57 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="1">
+      <c r="T6" s="1">
         <v>900</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1669,45 +1752,57 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="1">
         <v>5</v>
       </c>
-      <c r="P7" s="1">
+      <c r="T7" s="1">
         <v>1350</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1720,45 +1815,57 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
       </c>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="1">
+      <c r="T8" s="1">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1771,45 +1878,57 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
       </c>
       <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="P9" s="1">
+      <c r="T9" s="1">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1822,45 +1941,57 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
       </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="1">
         <v>4</v>
       </c>
-      <c r="P10" s="1">
+      <c r="T10" s="1">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1873,45 +2004,57 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
       </c>
       <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="1">
         <v>3</v>
       </c>
-      <c r="P11" s="1">
+      <c r="T11" s="1">
         <v>600</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1924,45 +2067,57 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
       </c>
       <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="1">
         <v>3</v>
       </c>
-      <c r="P12" s="1">
+      <c r="T12" s="1">
         <v>900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1975,45 +2130,57 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
       </c>
       <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="1">
         <v>2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="T13" s="1">
         <v>300</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2026,45 +2193,57 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
       </c>
       <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="1">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="T14" s="1">
         <v>900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2077,45 +2256,85 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="12:15">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="12:15">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
       </c>
       <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="1">
         <v>2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="T17" s="1">
         <v>800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2128,45 +2347,57 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
       </c>
       <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="1">
         <v>4</v>
       </c>
-      <c r="P18" s="1">
+      <c r="T18" s="1">
         <v>600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2179,45 +2410,57 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
       </c>
       <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" s="1">
         <v>4</v>
       </c>
-      <c r="P19" s="1">
+      <c r="T19" s="1">
         <v>1800</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2230,45 +2473,71 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="12:15">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
       </c>
       <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="1">
         <v>2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="T21" s="1">
         <v>300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="U21" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2281,45 +2550,57 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
       </c>
       <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S22" s="1">
         <v>8</v>
       </c>
-      <c r="P22" s="1">
+      <c r="T22" s="1">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2332,45 +2613,85 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="12:15">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="12:15">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="S25" s="1">
         <v>8</v>
       </c>
-      <c r="P25" s="1">
+      <c r="T25" s="1">
         <v>2000</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -2383,29 +2704,33 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q1:AG1"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="Q3:AG3"/>
-    <mergeCell ref="Q4:AG4"/>
-    <mergeCell ref="Q5:AG5"/>
-    <mergeCell ref="Q6:AG6"/>
-    <mergeCell ref="Q7:AG7"/>
-    <mergeCell ref="Q8:AG8"/>
-    <mergeCell ref="Q9:AG9"/>
-    <mergeCell ref="Q10:AG10"/>
-    <mergeCell ref="Q11:AG11"/>
-    <mergeCell ref="Q12:AG12"/>
-    <mergeCell ref="Q13:AG13"/>
-    <mergeCell ref="Q14:AG14"/>
-    <mergeCell ref="Q17:AG17"/>
-    <mergeCell ref="Q18:AG18"/>
-    <mergeCell ref="Q19:AG19"/>
-    <mergeCell ref="Q21:AG21"/>
-    <mergeCell ref="Q22:AG22"/>
-    <mergeCell ref="Q25:AG25"/>
+    <mergeCell ref="U1:AK1"/>
+    <mergeCell ref="U2:AK2"/>
+    <mergeCell ref="U3:AK3"/>
+    <mergeCell ref="U4:AK4"/>
+    <mergeCell ref="U5:AK5"/>
+    <mergeCell ref="U6:AK6"/>
+    <mergeCell ref="U7:AK7"/>
+    <mergeCell ref="U8:AK8"/>
+    <mergeCell ref="U9:AK9"/>
+    <mergeCell ref="U10:AK10"/>
+    <mergeCell ref="U11:AK11"/>
+    <mergeCell ref="U12:AK12"/>
+    <mergeCell ref="U13:AK13"/>
+    <mergeCell ref="U14:AK14"/>
+    <mergeCell ref="U17:AK17"/>
+    <mergeCell ref="U18:AK18"/>
+    <mergeCell ref="U19:AK19"/>
+    <mergeCell ref="U21:AK21"/>
+    <mergeCell ref="U22:AK22"/>
+    <mergeCell ref="U25:AK25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2418,7 +2743,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2432,297 +2757,297 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
